--- a/STGGame/Assets/MainEditor/Design/Configs/G_Prop.xlsx
+++ b/STGGame/Assets/MainEditor/Design/Configs/G_Prop.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24526"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1700" yWindow="6420" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="14340" yWindow="9860" windowWidth="25600" windowHeight="16120" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -642,17 +642,18 @@
   <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="2" width="22.1640625" customWidth="1"/>
+    <col min="1" max="1" width="13.5" customWidth="1"/>
+    <col min="2" max="2" width="22.1640625" customWidth="1"/>
     <col min="3" max="3" width="9.83203125" customWidth="1"/>
-    <col min="4" max="4" width="6.33203125" customWidth="1"/>
-    <col min="5" max="5" width="7.6640625" customWidth="1"/>
-    <col min="6" max="6" width="9.33203125" customWidth="1"/>
-    <col min="7" max="7" width="38.1640625" customWidth="1"/>
+    <col min="4" max="4" width="12" customWidth="1"/>
+    <col min="5" max="5" width="16.1640625" customWidth="1"/>
+    <col min="6" max="6" width="12" customWidth="1"/>
+    <col min="7" max="7" width="16.83203125" customWidth="1"/>
     <col min="8" max="8" width="34.6640625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -732,7 +733,7 @@
     <row r="5" spans="1:8" hidden="1"/>
     <row r="6" spans="1:8">
       <c r="A6" s="1">
-        <v>10800001</v>
+        <v>10800100</v>
       </c>
       <c r="B6" t="s">
         <v>20</v>
@@ -755,7 +756,7 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1">
-        <v>10800002</v>
+        <v>10800200</v>
       </c>
       <c r="B7" t="s">
         <v>34</v>
@@ -778,7 +779,7 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1">
-        <v>10800003</v>
+        <v>10800300</v>
       </c>
       <c r="B8" t="s">
         <v>21</v>
@@ -801,7 +802,7 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1">
-        <v>10800004</v>
+        <v>10800400</v>
       </c>
       <c r="B9" t="s">
         <v>22</v>
@@ -824,7 +825,7 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1">
-        <v>10800005</v>
+        <v>10800500</v>
       </c>
       <c r="B10" t="s">
         <v>23</v>
@@ -847,7 +848,7 @@
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="1">
-        <v>10800006</v>
+        <v>10800600</v>
       </c>
       <c r="B11" t="s">
         <v>24</v>
@@ -870,7 +871,7 @@
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="1">
-        <v>10800007</v>
+        <v>10800700</v>
       </c>
       <c r="B12" t="s">
         <v>25</v>
@@ -893,7 +894,7 @@
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="1">
-        <v>10800008</v>
+        <v>10800800</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -916,7 +917,7 @@
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="1">
-        <v>10800009</v>
+        <v>10800900</v>
       </c>
       <c r="B14" t="s">
         <v>27</v>
@@ -939,7 +940,7 @@
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="1">
-        <v>10800010</v>
+        <v>10801000</v>
       </c>
       <c r="B15" t="s">
         <v>28</v>
@@ -962,7 +963,7 @@
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="1">
-        <v>10800011</v>
+        <v>10801100</v>
       </c>
       <c r="B16" t="s">
         <v>29</v>
@@ -985,7 +986,7 @@
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="1">
-        <v>10800012</v>
+        <v>10801200</v>
       </c>
       <c r="B17" t="s">
         <v>30</v>
@@ -1008,7 +1009,7 @@
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="1">
-        <v>10800013</v>
+        <v>10801300</v>
       </c>
       <c r="B18" t="s">
         <v>31</v>
@@ -1031,7 +1032,7 @@
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="1">
-        <v>10800014</v>
+        <v>10801400</v>
       </c>
       <c r="B19" t="s">
         <v>32</v>
@@ -1054,7 +1055,7 @@
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="1">
-        <v>10800015</v>
+        <v>10801500</v>
       </c>
       <c r="B20" t="s">
         <v>33</v>
@@ -1077,7 +1078,7 @@
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="1">
-        <v>10800016</v>
+        <v>10801600</v>
       </c>
       <c r="B21" t="s">
         <v>51</v>

--- a/STGGame/Assets/MainEditor/Design/Configs/G_Prop.xlsx
+++ b/STGGame/Assets/MainEditor/Design/Configs/G_Prop.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24526"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="14340" yWindow="9860" windowWidth="25600" windowHeight="16120" tabRatio="500"/>
+    <workbookView xWindow="10280" yWindow="6560" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,45 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>超军 石</author>
+  </authors>
+  <commentList>
+    <comment ref="E1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="2"/>
+            <charset val="134"/>
+          </rPr>
+          <t>超军 石:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="2"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+效果有,
++Buff
++生命
++血量+加分等</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
   <si>
@@ -246,7 +285,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -279,6 +318,21 @@
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -638,11 +692,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1103,6 +1157,7 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <legacyDrawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
